--- a/public/uploads/factucontrol/formatos/FormatoProveedores.xlsx
+++ b/public/uploads/factucontrol/formatos/FormatoProveedores.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.ar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.ar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4050"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>nit</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>codigoVerificacion</t>
   </si>
 </sst>
 </file>
@@ -383,91 +386,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12665</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+        <v>454511</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7534654444</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>66515165</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
